--- a/data/trans_orig/P36B02_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90472000-0B97-4D81-92FF-D0CC0418A462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11C53A8A-D4C9-4890-B9E3-CFE2E97164C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7A5B297-9BBA-4C9A-9EA4-C01EEBCF7319}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{445886F9-5D4F-4C58-94CA-5AECA252BCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
   <si>
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,7 +77,7 @@
     <t>96,06%</t>
   </si>
   <si>
-    <t>90,21%</t>
+    <t>90,29%</t>
   </si>
   <si>
     <t>98,99%</t>
@@ -86,7 +86,7 @@
     <t>97,64%</t>
   </si>
   <si>
-    <t>93,87%</t>
+    <t>94,08%</t>
   </si>
   <si>
     <t>99,3%</t>
@@ -95,10 +95,10 @@
     <t>96,84%</t>
   </si>
   <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,7 +110,7 @@
     <t>1,01%</t>
   </si>
   <si>
-    <t>9,79%</t>
+    <t>9,71%</t>
   </si>
   <si>
     <t>2,36%</t>
@@ -119,40 +119,40 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>6,13%</t>
+    <t>5,92%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>94,78%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>94,98%</t>
   </si>
   <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>94,88%</t>
@@ -161,1045 +161,1057 @@
     <t>93,51%</t>
   </si>
   <si>
-    <t>96,0%</t>
+    <t>96,03%</t>
   </si>
   <si>
     <t>5,22%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
   </si>
   <si>
     <t>5,02%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>3,97%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>91,98%</t>
   </si>
   <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
   </si>
   <si>
     <t>93,29%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>91,41%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>93,8%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>91,57%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
   </si>
   <si>
     <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
   </si>
   <si>
     <t>16,19%</t>
@@ -1725,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4940A8-A80A-4F50-8964-7B1AC8165BA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8FF055-B758-449D-910B-7227E1C263B9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2326,7 +2338,7 @@
         <v>651</v>
       </c>
       <c r="I13" s="7">
-        <v>641022</v>
+        <v>641023</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2350,7 +2362,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,13 +2377,13 @@
         <v>51048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -2380,13 +2392,13 @@
         <v>41686</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>91</v>
@@ -2395,13 +2407,13 @@
         <v>92734</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,7 +2440,7 @@
         <v>695</v>
       </c>
       <c r="I15" s="7">
-        <v>682708</v>
+        <v>682709</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2457,7 +2469,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2469,13 +2481,13 @@
         <v>871139</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>946</v>
@@ -2484,13 +2496,13 @@
         <v>984658</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1866</v>
@@ -2499,13 +2511,13 @@
         <v>1855797</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2520,13 +2532,13 @@
         <v>70201</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -2535,13 +2547,13 @@
         <v>53954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>124</v>
@@ -2550,13 +2562,13 @@
         <v>124155</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2636,13 @@
         <v>3042542</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>3108</v>
@@ -2639,13 +2651,13 @@
         <v>3185936</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>6094</v>
@@ -2654,13 +2666,13 @@
         <v>6228477</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,13 +2687,13 @@
         <v>233120</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -2690,7 +2702,7 @@
         <v>192129</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>118</v>
@@ -2788,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FBA038-8CD1-4038-82CB-97A273AE6403}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACD1C7D-F9F0-4207-86A5-4DE36F956E7E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2948,7 +2960,7 @@
         <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2975,13 @@
         <v>10971</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2978,13 +2990,13 @@
         <v>4451</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -2993,13 +3005,13 @@
         <v>15422</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3079,13 @@
         <v>563484</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>527</v>
@@ -3082,13 +3094,13 @@
         <v>559173</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>1057</v>
@@ -3097,13 +3109,13 @@
         <v>1122658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3130,13 @@
         <v>24220</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -3252,13 +3264,13 @@
         <v>1939616</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,13 +3285,13 @@
         <v>54249</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>51</v>
@@ -3288,13 +3300,13 @@
         <v>55287</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>99</v>
@@ -3303,13 +3315,13 @@
         <v>109537</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,13 +3389,13 @@
         <v>679347</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>653</v>
@@ -3392,13 +3404,13 @@
         <v>718686</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>1269</v>
@@ -3407,13 +3419,13 @@
         <v>1398034</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3440,13 @@
         <v>78276</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -3443,13 +3455,13 @@
         <v>55470</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -3458,13 +3470,13 @@
         <v>133745</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,7 +3532,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3532,13 +3544,13 @@
         <v>885611</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>939</v>
@@ -3547,13 +3559,13 @@
         <v>983788</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>1792</v>
@@ -3562,13 +3574,13 @@
         <v>1869398</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3595,13 @@
         <v>61215</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -3598,13 +3610,13 @@
         <v>66186</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -3613,13 +3625,13 @@
         <v>127401</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3699,13 @@
         <v>3196935</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>3102</v>
@@ -3702,13 +3714,13 @@
         <v>3345019</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>6100</v>
@@ -3717,13 +3729,13 @@
         <v>6541954</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3750,13 @@
         <v>228930</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H20" s="7">
         <v>190</v>
@@ -3753,13 +3765,13 @@
         <v>207366</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>400</v>
@@ -3768,13 +3780,13 @@
         <v>436296</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,7 +3863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AA59BF-39DF-4262-A5DE-8D145A86AB8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B8AD35-DF79-41EE-AA57-68E583B21353}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3868,7 +3880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3975,13 +3987,13 @@
         <v>106184</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>110</v>
@@ -3990,13 +4002,13 @@
         <v>108929</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>213</v>
@@ -4005,13 +4017,13 @@
         <v>215113</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4038,13 @@
         <v>10362</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4041,13 +4053,13 @@
         <v>4431</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4056,13 +4068,13 @@
         <v>14793</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4142,13 @@
         <v>518734</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>524</v>
@@ -4145,13 +4157,13 @@
         <v>532267</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>53</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>1026</v>
@@ -4160,13 +4172,13 @@
         <v>1051002</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4193,13 @@
         <v>38628</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -4196,13 +4208,13 @@
         <v>25357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>61</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
@@ -4211,13 +4223,13 @@
         <v>63984</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4297,13 @@
         <v>934288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>907</v>
@@ -4300,28 +4312,28 @@
         <v>971703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>1779</v>
       </c>
       <c r="N10" s="7">
-        <v>1905991</v>
+        <v>1905990</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4348,13 @@
         <v>87174</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>70</v>
@@ -4351,13 +4363,13 @@
         <v>71210</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>148</v>
@@ -4366,13 +4378,13 @@
         <v>158384</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,7 +4426,7 @@
         <v>1927</v>
       </c>
       <c r="N12" s="7">
-        <v>2064375</v>
+        <v>2064374</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4440,13 +4452,13 @@
         <v>671381</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>686</v>
@@ -4455,13 +4467,13 @@
         <v>733060</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M13" s="7">
         <v>1299</v>
@@ -4506,13 +4518,13 @@
         <v>51951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
@@ -4521,13 +4533,13 @@
         <v>137979</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,7 +4595,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4595,13 +4607,13 @@
         <v>877479</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
         <v>905</v>
@@ -4610,13 +4622,13 @@
         <v>985083</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M16" s="7">
         <v>1780</v>
@@ -4625,13 +4637,13 @@
         <v>1862562</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4658,13 @@
         <v>57191</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -4661,13 +4673,13 @@
         <v>57584</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>172</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -4676,7 +4688,7 @@
         <v>114775</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>308</v>
@@ -4753,10 +4765,10 @@
         <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>3132</v>
@@ -4765,28 +4777,28 @@
         <v>3331043</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>6097</v>
       </c>
       <c r="N19" s="7">
-        <v>6439108</v>
+        <v>6439109</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>53</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4813,13 @@
         <v>279383</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="H20" s="7">
         <v>203</v>
@@ -4831,13 +4843,13 @@
         <v>489915</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>61</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,7 +4891,7 @@
         <v>6559</v>
       </c>
       <c r="N21" s="7">
-        <v>6929023</v>
+        <v>6929024</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4914,7 +4926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7DA3D3-24E9-4A80-90E5-FCE61A4DFC6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7F0E67-2F3F-4F78-8D87-5592BCD39067}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4931,7 +4943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5038,13 +5050,13 @@
         <v>90117</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>230</v>
@@ -5053,13 +5065,13 @@
         <v>122632</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>59</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>334</v>
@@ -5068,13 +5080,13 @@
         <v>212748</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5101,13 @@
         <v>11865</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5104,13 +5116,13 @@
         <v>8101</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>67</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -5119,13 +5131,13 @@
         <v>19967</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5205,13 @@
         <v>482057</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>902</v>
@@ -5208,13 +5220,13 @@
         <v>532888</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>1448</v>
@@ -5223,13 +5235,13 @@
         <v>1014946</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>349</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5256,13 @@
         <v>67766</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>93</v>
@@ -5259,13 +5271,13 @@
         <v>59667</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>159</v>
@@ -5274,13 +5286,13 @@
         <v>127432</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5360,13 @@
         <v>937340</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>1392</v>
@@ -5363,13 +5375,13 @@
         <v>966729</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>2266</v>
@@ -5378,13 +5390,13 @@
         <v>1904069</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5411,13 @@
         <v>101908</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>124</v>
@@ -5414,13 +5426,13 @@
         <v>92745</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M11" s="7">
         <v>214</v>
@@ -5429,13 +5441,13 @@
         <v>194653</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5515,13 @@
         <v>582089</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>894</v>
@@ -5518,13 +5530,13 @@
         <v>758514</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>1446</v>
@@ -5533,13 +5545,13 @@
         <v>1340602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5566,13 @@
         <v>146683</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>153</v>
@@ -5569,13 +5581,13 @@
         <v>115857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>276</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>277</v>
@@ -5584,13 +5596,13 @@
         <v>262540</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,7 +5658,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5658,13 +5670,13 @@
         <v>856000</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>1382</v>
@@ -5673,13 +5685,13 @@
         <v>1012016</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>2282</v>
@@ -5688,13 +5700,13 @@
         <v>1868016</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5721,13 @@
         <v>109403</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>180</v>
@@ -5724,13 +5736,13 @@
         <v>138416</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>286</v>
@@ -5739,13 +5751,13 @@
         <v>247819</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5825,13 @@
         <v>2947604</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H19" s="7">
         <v>4800</v>
@@ -5828,13 +5840,13 @@
         <v>3392778</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>7776</v>
@@ -5843,13 +5855,13 @@
         <v>6340381</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5876,13 @@
         <v>437624</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>563</v>
@@ -5879,13 +5891,13 @@
         <v>414786</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>963</v>
@@ -5894,13 +5906,13 @@
         <v>852411</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36B02_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11C53A8A-D4C9-4890-B9E3-CFE2E97164C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0F7D3AC-888B-4551-8BB5-6366EA1DFF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{445886F9-5D4F-4C58-94CA-5AECA252BCCB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{796718FF-F270-4890-859C-624AB52E4016}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="411">
   <si>
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>96,06%</t>
   </si>
   <si>
-    <t>90,29%</t>
+    <t>90,98%</t>
   </si>
   <si>
     <t>98,99%</t>
@@ -86,19 +86,19 @@
     <t>97,64%</t>
   </si>
   <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>96,84%</t>
   </si>
   <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>No</t>
@@ -110,25 +110,25 @@
     <t>1,01%</t>
   </si>
   <si>
-    <t>9,71%</t>
+    <t>9,02%</t>
   </si>
   <si>
     <t>2,36%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>94,78%</t>
   </si>
   <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>94,98%</t>
@@ -152,1084 +152,1030 @@
     <t>92,99%</t>
   </si>
   <si>
-    <t>96,55%</t>
+    <t>96,59%</t>
   </si>
   <si>
     <t>94,88%</t>
   </si>
   <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
     <t>93,51%</t>
   </si>
   <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
   </si>
   <si>
     <t>94,34%</t>
   </si>
   <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>91,66%</t>
   </si>
   <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
+    <t>16,33%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
+    <t>18,86%</t>
   </si>
   <si>
     <t>88,67%</t>
   </si>
   <si>
-    <t>86,24%</t>
+    <t>86,08%</t>
   </si>
   <si>
     <t>90,74%</t>
@@ -1238,16 +1184,19 @@
     <t>87,97%</t>
   </si>
   <si>
-    <t>89,87%</t>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
   </si>
   <si>
     <t>88,29%</t>
   </si>
   <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
   </si>
   <si>
     <t>11,33%</t>
@@ -1256,76 +1205,73 @@
     <t>9,26%</t>
   </si>
   <si>
-    <t>13,76%</t>
+    <t>13,92%</t>
   </si>
   <si>
     <t>12,03%</t>
   </si>
   <si>
-    <t>10,13%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
   </si>
   <si>
     <t>89,11%</t>
   </si>
   <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
+    <t>90,32%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>9,68%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8FF055-B758-449D-910B-7227E1C263B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08716E3B-FEE8-4B91-874D-AA383CBAA243}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2499,10 +2445,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
         <v>1866</v>
@@ -2511,13 +2457,13 @@
         <v>1855797</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2478,13 @@
         <v>70201</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>51</v>
@@ -2547,13 +2493,13 @@
         <v>53954</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>124</v>
@@ -2562,13 +2508,13 @@
         <v>124155</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2582,13 @@
         <v>3042542</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>3108</v>
@@ -2651,13 +2597,13 @@
         <v>3185936</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>6094</v>
@@ -2666,13 +2612,13 @@
         <v>6228477</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2633,13 @@
         <v>233120</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>188</v>
@@ -2702,13 +2648,13 @@
         <v>192129</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>415</v>
@@ -2717,13 +2663,13 @@
         <v>425249</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,7 +2725,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2800,7 +2746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACD1C7D-F9F0-4207-86A5-4DE36F956E7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49C2541-BAA3-42F4-818A-71E7472D9362}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2817,7 +2763,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,13 +2870,13 @@
         <v>104794</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>95</v>
@@ -2939,13 +2885,13 @@
         <v>107454</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>206</v>
@@ -2954,13 +2900,13 @@
         <v>212248</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2921,13 @@
         <v>10971</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2990,13 +2936,13 @@
         <v>4451</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -3005,13 +2951,13 @@
         <v>15422</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3025,13 @@
         <v>563484</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>527</v>
@@ -3094,13 +3040,13 @@
         <v>559173</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>1057</v>
@@ -3109,13 +3055,13 @@
         <v>1122658</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3076,13 @@
         <v>24220</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>24</v>
@@ -3145,13 +3091,13 @@
         <v>25972</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>46</v>
@@ -3160,13 +3106,13 @@
         <v>50191</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3180,13 @@
         <v>963698</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>888</v>
@@ -3249,13 +3195,13 @@
         <v>975919</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>1776</v>
@@ -3264,13 +3210,13 @@
         <v>1939616</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3231,13 @@
         <v>54249</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>51</v>
@@ -3300,13 +3246,13 @@
         <v>55287</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>99</v>
@@ -3315,13 +3261,13 @@
         <v>109537</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3335,13 @@
         <v>679347</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>653</v>
@@ -3404,13 +3350,13 @@
         <v>718686</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>1269</v>
@@ -3419,13 +3365,13 @@
         <v>1398034</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3386,13 @@
         <v>78276</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -3455,13 +3401,13 @@
         <v>55470</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -3470,13 +3416,13 @@
         <v>133745</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3490,13 @@
         <v>885611</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>939</v>
@@ -3559,13 +3505,13 @@
         <v>983788</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>1792</v>
@@ -3574,13 +3520,13 @@
         <v>1869398</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3541,13 @@
         <v>61215</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -3610,13 +3556,13 @@
         <v>66186</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>118</v>
@@ -3625,13 +3571,13 @@
         <v>127401</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3645,13 @@
         <v>3196935</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>3102</v>
@@ -3714,13 +3660,13 @@
         <v>3345019</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>6100</v>
@@ -3729,13 +3675,13 @@
         <v>6541954</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3696,13 @@
         <v>228930</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>190</v>
@@ -3765,13 +3711,13 @@
         <v>207366</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>400</v>
@@ -3780,13 +3726,13 @@
         <v>436296</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3788,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3863,7 +3809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B8AD35-DF79-41EE-AA57-68E583B21353}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D55652A-3E86-4BA9-BCCB-C97BCA7C39FC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3880,7 +3826,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,13 +3933,13 @@
         <v>106184</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>110</v>
@@ -4002,13 +3948,13 @@
         <v>108929</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>213</v>
@@ -4017,13 +3963,13 @@
         <v>215113</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +3984,13 @@
         <v>10362</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4053,13 +3999,13 @@
         <v>4431</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>15</v>
@@ -4068,13 +4014,13 @@
         <v>14793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4088,13 @@
         <v>518734</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>524</v>
@@ -4157,13 +4103,13 @@
         <v>532267</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>1026</v>
@@ -4172,13 +4118,13 @@
         <v>1051002</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4139,13 @@
         <v>38628</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>25</v>
@@ -4208,13 +4154,13 @@
         <v>25357</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>61</v>
@@ -4223,13 +4169,13 @@
         <v>63984</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4243,13 @@
         <v>934288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="H10" s="7">
         <v>907</v>
@@ -4312,28 +4258,28 @@
         <v>971703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M10" s="7">
         <v>1779</v>
       </c>
       <c r="N10" s="7">
-        <v>1905990</v>
+        <v>1905991</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4294,13 @@
         <v>87174</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>70</v>
@@ -4363,13 +4309,13 @@
         <v>71210</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>148</v>
@@ -4378,13 +4324,13 @@
         <v>158384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,7 +4372,7 @@
         <v>1927</v>
       </c>
       <c r="N12" s="7">
-        <v>2064374</v>
+        <v>2064375</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4452,13 +4398,13 @@
         <v>671381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>686</v>
@@ -4467,13 +4413,13 @@
         <v>733060</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>1299</v>
@@ -4482,13 +4428,13 @@
         <v>1404441</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4449,13 @@
         <v>86028</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>50</v>
@@ -4518,13 +4464,13 @@
         <v>51951</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
         <v>131</v>
@@ -4533,13 +4479,13 @@
         <v>137979</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,13 +4553,13 @@
         <v>877479</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>905</v>
@@ -4622,13 +4568,13 @@
         <v>985083</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>163</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>1780</v>
@@ -4637,13 +4583,13 @@
         <v>1862562</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4604,13 @@
         <v>57191</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
@@ -4673,13 +4619,13 @@
         <v>57584</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>172</v>
+        <v>296</v>
       </c>
       <c r="M17" s="7">
         <v>107</v>
@@ -4688,13 +4634,13 @@
         <v>114775</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4708,13 @@
         <v>3108065</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7">
         <v>3132</v>
@@ -4777,28 +4723,28 @@
         <v>3331043</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>6097</v>
       </c>
       <c r="N19" s="7">
-        <v>6439109</v>
+        <v>6439108</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4759,13 @@
         <v>279383</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>43</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>203</v>
@@ -4828,13 +4774,13 @@
         <v>210532</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>462</v>
@@ -4843,13 +4789,13 @@
         <v>489915</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,7 +4837,7 @@
         <v>6559</v>
       </c>
       <c r="N21" s="7">
-        <v>6929024</v>
+        <v>6929023</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4905,7 +4851,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +4872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7F0E67-2F3F-4F78-8D87-5592BCD39067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C23189D-2DA8-45DF-B409-08D4D994AC56}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,7 +4889,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,13 +4996,13 @@
         <v>90117</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>54</v>
       </c>
       <c r="H4" s="7">
         <v>230</v>
@@ -5065,13 +5011,13 @@
         <v>122632</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>334</v>
@@ -5080,13 +5026,13 @@
         <v>212748</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5047,13 @@
         <v>11865</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>63</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5116,13 +5062,13 @@
         <v>8101</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -5131,13 +5077,13 @@
         <v>19967</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5151,13 @@
         <v>482057</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="H7" s="7">
         <v>902</v>
@@ -5220,13 +5166,13 @@
         <v>532888</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>1448</v>
@@ -5235,13 +5181,13 @@
         <v>1014946</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5202,13 @@
         <v>67766</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="H8" s="7">
         <v>93</v>
@@ -5271,13 +5217,13 @@
         <v>59667</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>159</v>
@@ -5286,13 +5232,13 @@
         <v>127432</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>347</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5306,13 @@
         <v>937340</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>283</v>
       </c>
       <c r="H10" s="7">
         <v>1392</v>
@@ -5375,13 +5321,13 @@
         <v>966729</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>2266</v>
@@ -5390,13 +5336,13 @@
         <v>1904069</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5357,13 @@
         <v>101908</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>293</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="H11" s="7">
         <v>124</v>
@@ -5426,13 +5372,13 @@
         <v>92745</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>373</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>214</v>
@@ -5441,13 +5387,13 @@
         <v>194653</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5461,13 @@
         <v>582089</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="H13" s="7">
         <v>894</v>
@@ -5530,13 +5476,13 @@
         <v>758514</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>1446</v>
@@ -5545,13 +5491,13 @@
         <v>1340602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5512,13 @@
         <v>146683</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>153</v>
@@ -5581,13 +5527,13 @@
         <v>115857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>277</v>
@@ -5596,13 +5542,13 @@
         <v>262540</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5616,13 @@
         <v>856000</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>1382</v>
@@ -5685,13 +5631,13 @@
         <v>1012016</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>2282</v>
@@ -5700,13 +5646,13 @@
         <v>1868016</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5667,13 @@
         <v>109403</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>180</v>
@@ -5736,13 +5682,13 @@
         <v>138416</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>286</v>
@@ -5751,13 +5697,13 @@
         <v>247819</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5771,13 @@
         <v>2947604</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>4800</v>
@@ -5840,13 +5786,13 @@
         <v>3392778</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>415</v>
+        <v>331</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>7776</v>
@@ -5855,13 +5801,13 @@
         <v>6340381</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5822,13 @@
         <v>437624</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>563</v>
@@ -5891,13 +5837,13 @@
         <v>414786</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>340</v>
       </c>
       <c r="M20" s="7">
         <v>963</v>
@@ -5906,13 +5852,13 @@
         <v>852411</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,7 +5914,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B02_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0F7D3AC-888B-4551-8BB5-6366EA1DFF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4517C36-7C39-4CF9-8F61-0750C33B7F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{796718FF-F270-4890-859C-624AB52E4016}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1DA2DF38-3AF9-41A2-9A0F-87F1A8A11560}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="356">
   <si>
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -68,1210 +68,1045 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>96,84%</t>
   </si>
   <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>92,69%</t>
   </si>
   <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>90,64%</t>
   </si>
   <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
 </sst>
 </file>
@@ -1683,8 +1518,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08716E3B-FEE8-4B91-874D-AA383CBAA243}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1331E966-C69C-4789-B4BA-6660B2C90116}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1801,10 +1636,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>101</v>
+        <v>648</v>
       </c>
       <c r="D4" s="7">
-        <v>110811</v>
+        <v>659243</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1816,10 +1651,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>125</v>
+        <v>663</v>
       </c>
       <c r="I4" s="7">
-        <v>110097</v>
+        <v>656798</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1831,10 +1666,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>226</v>
+        <v>1311</v>
       </c>
       <c r="N4" s="7">
-        <v>220909</v>
+        <v>1316040</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1852,10 +1687,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D5" s="7">
-        <v>4547</v>
+        <v>34769</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1867,10 +1702,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="I5" s="7">
-        <v>2658</v>
+        <v>31553</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1882,10 +1717,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="N5" s="7">
-        <v>7204</v>
+        <v>66323</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1903,10 +1738,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1918,10 +1753,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1933,10 +1768,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1956,10 +1791,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>547</v>
+        <v>824</v>
       </c>
       <c r="D7" s="7">
-        <v>548431</v>
+        <v>884699</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1971,10 +1806,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>538</v>
+        <v>848</v>
       </c>
       <c r="I7" s="7">
-        <v>546700</v>
+        <v>903458</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1986,10 +1821,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>1085</v>
+        <v>1672</v>
       </c>
       <c r="N7" s="7">
-        <v>1095131</v>
+        <v>1788157</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2007,10 +1842,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D8" s="7">
-        <v>30223</v>
+        <v>77101</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2022,10 +1857,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I8" s="7">
-        <v>28896</v>
+        <v>64935</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2037,10 +1872,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c r="N8" s="7">
-        <v>59119</v>
+        <v>142036</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2058,10 +1893,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2073,10 +1908,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2088,10 +1923,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2111,10 +1946,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>824</v>
+        <v>594</v>
       </c>
       <c r="D10" s="7">
-        <v>884699</v>
+        <v>627461</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2126,10 +1961,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>848</v>
+        <v>651</v>
       </c>
       <c r="I10" s="7">
-        <v>903458</v>
+        <v>641023</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2141,10 +1976,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>1672</v>
+        <v>1245</v>
       </c>
       <c r="N10" s="7">
-        <v>1788157</v>
+        <v>1268484</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2162,10 +1997,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D11" s="7">
-        <v>77101</v>
+        <v>51048</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2177,10 +2012,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I11" s="7">
-        <v>64935</v>
+        <v>41686</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2192,10 +2027,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="N11" s="7">
-        <v>142036</v>
+        <v>92734</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2213,10 +2048,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2228,10 +2063,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>695</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>682709</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2243,10 +2078,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1336</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1361218</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2266,10 +2101,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>594</v>
+        <v>920</v>
       </c>
       <c r="D13" s="7">
-        <v>627461</v>
+        <v>871139</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2281,34 +2116,34 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>651</v>
+        <v>946</v>
       </c>
       <c r="I13" s="7">
-        <v>641023</v>
+        <v>984658</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>1866</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1855797</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>1245</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1268484</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,49 +2152,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>73</v>
+      </c>
+      <c r="D14" s="7">
+        <v>70201</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="7">
+        <v>51</v>
+      </c>
+      <c r="I14" s="7">
+        <v>53954</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="7">
+        <v>124</v>
+      </c>
+      <c r="N14" s="7">
+        <v>124155</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="D14" s="7">
-        <v>51048</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="7">
-        <v>44</v>
-      </c>
-      <c r="I14" s="7">
-        <v>41686</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="7">
-        <v>91</v>
-      </c>
-      <c r="N14" s="7">
-        <v>92734</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,10 +2203,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>993</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>941340</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2383,10 +2218,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>695</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>682709</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2398,10 +2233,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1336</v>
+        <v>1990</v>
       </c>
       <c r="N15" s="7">
-        <v>1361218</v>
+        <v>1979952</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2415,55 +2250,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>920</v>
+        <v>2986</v>
       </c>
       <c r="D16" s="7">
-        <v>871139</v>
+        <v>3042541</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3108</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3185936</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>6094</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6228477</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>946</v>
-      </c>
-      <c r="I16" s="7">
-        <v>984658</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1866</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1855797</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,40 +2307,40 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="D17" s="7">
-        <v>70201</v>
+        <v>233120</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>188</v>
+      </c>
+      <c r="I17" s="7">
+        <v>192129</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="7">
-        <v>51</v>
-      </c>
-      <c r="I17" s="7">
-        <v>53954</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="M17" s="7">
-        <v>124</v>
+        <v>415</v>
       </c>
       <c r="N17" s="7">
-        <v>124155</v>
+        <v>425249</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>99</v>
@@ -2514,7 +2349,7 @@
         <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2523,10 +2358,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>993</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>941340</v>
+        <v>3275661</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2538,10 +2373,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3378065</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2553,10 +2388,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1990</v>
+        <v>6509</v>
       </c>
       <c r="N18" s="7">
-        <v>1979952</v>
+        <v>6653726</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2569,171 +2404,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2986</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3042542</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3108</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3185936</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6094</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6228477</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>227</v>
-      </c>
-      <c r="D20" s="7">
-        <v>233120</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="7">
-        <v>188</v>
-      </c>
-      <c r="I20" s="7">
-        <v>192129</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="7">
-        <v>415</v>
-      </c>
-      <c r="N20" s="7">
-        <v>425249</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275662</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3378065</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6509</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6653726</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2746,8 +2425,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49C2541-BAA3-42F4-818A-71E7472D9362}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999C9FF7-2B02-4E3A-854D-BF441DDF7CED}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2763,7 +2442,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2864,49 +2543,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>641</v>
+      </c>
+      <c r="D4" s="7">
+        <v>668279</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="7">
+        <v>622</v>
+      </c>
+      <c r="I4" s="7">
+        <v>666627</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1263</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1334906</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="7">
-        <v>104794</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" s="7">
-        <v>95</v>
-      </c>
-      <c r="I4" s="7">
-        <v>107454</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>206</v>
-      </c>
-      <c r="N4" s="7">
-        <v>212248</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,49 +2594,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>10971</v>
+        <v>35190</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>4451</v>
+        <v>30423</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="N5" s="7">
-        <v>15422</v>
+        <v>65613</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,10 +2645,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2981,10 +2660,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2996,10 +2675,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3019,49 +2698,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>530</v>
+        <v>888</v>
       </c>
       <c r="D7" s="7">
-        <v>563484</v>
+        <v>963698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>527</v>
+        <v>888</v>
       </c>
       <c r="I7" s="7">
-        <v>559173</v>
+        <v>975919</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>1057</v>
+        <v>1776</v>
       </c>
       <c r="N7" s="7">
-        <v>1122658</v>
+        <v>1939616</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,49 +2749,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7">
-        <v>24220</v>
+        <v>54249</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="I8" s="7">
-        <v>25972</v>
+        <v>55287</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="N8" s="7">
-        <v>50191</v>
+        <v>109537</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,10 +2800,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3136,10 +2815,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>939</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1031206</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3151,10 +2830,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1875</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2049153</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3174,49 +2853,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>888</v>
+        <v>616</v>
       </c>
       <c r="D10" s="7">
-        <v>963698</v>
+        <v>679347</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>888</v>
+        <v>653</v>
       </c>
       <c r="I10" s="7">
-        <v>975919</v>
+        <v>718686</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>1776</v>
+        <v>1269</v>
       </c>
       <c r="N10" s="7">
-        <v>1939616</v>
+        <v>1398034</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,49 +2904,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D11" s="7">
-        <v>54249</v>
+        <v>78276</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I11" s="7">
-        <v>55287</v>
+        <v>55470</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="N11" s="7">
-        <v>109537</v>
+        <v>133745</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,10 +2955,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3291,10 +2970,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>939</v>
+        <v>702</v>
       </c>
       <c r="I12" s="7">
-        <v>1031206</v>
+        <v>774156</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3306,10 +2985,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1875</v>
+        <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>2049153</v>
+        <v>1531779</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3329,49 +3008,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>616</v>
+        <v>853</v>
       </c>
       <c r="D13" s="7">
-        <v>679347</v>
+        <v>885611</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="H13" s="7">
-        <v>653</v>
+        <v>939</v>
       </c>
       <c r="I13" s="7">
-        <v>718686</v>
+        <v>983788</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
-        <v>1269</v>
+        <v>1792</v>
       </c>
       <c r="N13" s="7">
-        <v>1398034</v>
+        <v>1869398</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,49 +3059,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D14" s="7">
-        <v>78276</v>
+        <v>61215</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I14" s="7">
-        <v>55470</v>
+        <v>66186</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N14" s="7">
-        <v>133745</v>
+        <v>127401</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,10 +3110,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>909</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>946826</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3446,10 +3125,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>702</v>
+        <v>1001</v>
       </c>
       <c r="I15" s="7">
-        <v>774156</v>
+        <v>1049974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3461,10 +3140,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1391</v>
+        <v>1910</v>
       </c>
       <c r="N15" s="7">
-        <v>1531779</v>
+        <v>1996799</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3478,55 +3157,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>853</v>
+        <v>2998</v>
       </c>
       <c r="D16" s="7">
-        <v>885611</v>
+        <v>3196935</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>939</v>
+        <v>3102</v>
       </c>
       <c r="I16" s="7">
-        <v>983788</v>
+        <v>3345019</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
-        <v>1792</v>
+        <v>6100</v>
       </c>
       <c r="N16" s="7">
-        <v>1869398</v>
+        <v>6541954</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,49 +3214,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>56</v>
+        <v>210</v>
       </c>
       <c r="D17" s="7">
-        <v>61215</v>
+        <v>228930</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="I17" s="7">
-        <v>66186</v>
+        <v>207366</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="M17" s="7">
-        <v>118</v>
+        <v>400</v>
       </c>
       <c r="N17" s="7">
-        <v>127401</v>
+        <v>436296</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,10 +3265,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>909</v>
+        <v>3208</v>
       </c>
       <c r="D18" s="7">
-        <v>946826</v>
+        <v>3425865</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3601,10 +3280,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1001</v>
+        <v>3292</v>
       </c>
       <c r="I18" s="7">
-        <v>1049974</v>
+        <v>3552385</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3616,10 +3295,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1910</v>
+        <v>6500</v>
       </c>
       <c r="N18" s="7">
-        <v>1996799</v>
+        <v>6978250</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3632,171 +3311,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2998</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3196935</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3102</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3345019</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6100</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6541954</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>210</v>
-      </c>
-      <c r="D20" s="7">
-        <v>228930</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H20" s="7">
-        <v>190</v>
-      </c>
-      <c r="I20" s="7">
-        <v>207366</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M20" s="7">
-        <v>400</v>
-      </c>
-      <c r="N20" s="7">
-        <v>436296</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3425865</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3292</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3552385</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6500</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6978250</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3809,8 +3332,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D55652A-3E86-4BA9-BCCB-C97BCA7C39FC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA83F885-76F5-4235-B2BE-4507199055AC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3826,7 +3349,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3927,49 +3450,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>103</v>
+        <v>605</v>
       </c>
       <c r="D4" s="7">
-        <v>106184</v>
+        <v>624918</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
-        <v>110</v>
+        <v>634</v>
       </c>
       <c r="I4" s="7">
-        <v>108929</v>
+        <v>641197</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="M4" s="7">
-        <v>213</v>
+        <v>1239</v>
       </c>
       <c r="N4" s="7">
-        <v>215113</v>
+        <v>1266115</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,49 +3501,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7">
-        <v>10362</v>
+        <v>48990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7">
-        <v>4431</v>
+        <v>29787</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="N5" s="7">
-        <v>14793</v>
+        <v>78777</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,10 +3552,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>651</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>673908</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4044,10 +3567,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>664</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>670984</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4059,10 +3582,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1315</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1344892</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4082,49 +3605,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>502</v>
+        <v>872</v>
       </c>
       <c r="D7" s="7">
-        <v>518734</v>
+        <v>934288</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
-        <v>524</v>
+        <v>907</v>
       </c>
       <c r="I7" s="7">
-        <v>532267</v>
+        <v>971703</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
-        <v>1026</v>
+        <v>1779</v>
       </c>
       <c r="N7" s="7">
-        <v>1051002</v>
+        <v>1905991</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,49 +3656,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D8" s="7">
-        <v>38628</v>
+        <v>87174</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="I8" s="7">
-        <v>25357</v>
+        <v>71210</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="N8" s="7">
-        <v>63984</v>
+        <v>158384</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,10 +3707,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>538</v>
+        <v>950</v>
       </c>
       <c r="D9" s="7">
-        <v>557362</v>
+        <v>1021462</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4199,10 +3722,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>549</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>557624</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4214,10 +3737,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1087</v>
+        <v>1927</v>
       </c>
       <c r="N9" s="7">
-        <v>1114986</v>
+        <v>2064375</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4237,49 +3760,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>872</v>
+        <v>613</v>
       </c>
       <c r="D10" s="7">
-        <v>934288</v>
+        <v>671381</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="7">
+        <v>686</v>
+      </c>
+      <c r="I10" s="7">
+        <v>733060</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H10" s="7">
-        <v>907</v>
-      </c>
-      <c r="I10" s="7">
-        <v>971703</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1779</v>
+        <v>1299</v>
       </c>
       <c r="N10" s="7">
-        <v>1905991</v>
+        <v>1404441</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,46 +3811,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D11" s="7">
-        <v>87174</v>
+        <v>86028</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="7">
+        <v>50</v>
+      </c>
+      <c r="I11" s="7">
+        <v>51951</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H11" s="7">
-        <v>70</v>
-      </c>
-      <c r="I11" s="7">
-        <v>71210</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>263</v>
-      </c>
       <c r="M11" s="7">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="N11" s="7">
-        <v>158384</v>
+        <v>137979</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>232</v>
@@ -4339,10 +3862,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>950</v>
+        <v>694</v>
       </c>
       <c r="D12" s="7">
-        <v>1021462</v>
+        <v>757409</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4354,10 +3877,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4369,10 +3892,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1927</v>
+        <v>1430</v>
       </c>
       <c r="N12" s="7">
-        <v>2064375</v>
+        <v>1542420</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4392,49 +3915,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>613</v>
+        <v>875</v>
       </c>
       <c r="D13" s="7">
-        <v>671381</v>
+        <v>877479</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
-        <v>686</v>
+        <v>905</v>
       </c>
       <c r="I13" s="7">
-        <v>733060</v>
+        <v>985083</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
-        <v>1299</v>
+        <v>1780</v>
       </c>
       <c r="N13" s="7">
-        <v>1404441</v>
+        <v>1862562</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,49 +3966,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>86028</v>
+        <v>57191</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="H14" s="7">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I14" s="7">
-        <v>51951</v>
+        <v>57584</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="M14" s="7">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="N14" s="7">
-        <v>137979</v>
+        <v>114775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,10 +4017,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>694</v>
+        <v>929</v>
       </c>
       <c r="D15" s="7">
-        <v>757409</v>
+        <v>934670</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4509,10 +4032,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>958</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1042667</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4524,10 +4047,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1430</v>
+        <v>1887</v>
       </c>
       <c r="N15" s="7">
-        <v>1542420</v>
+        <v>1977337</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4541,55 +4064,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>875</v>
+        <v>2965</v>
       </c>
       <c r="D16" s="7">
-        <v>877479</v>
+        <v>3108065</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="H16" s="7">
-        <v>905</v>
+        <v>3132</v>
       </c>
       <c r="I16" s="7">
-        <v>985083</v>
+        <v>3331043</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
-        <v>1780</v>
+        <v>6097</v>
       </c>
       <c r="N16" s="7">
-        <v>1862562</v>
+        <v>6439108</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,49 +4121,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>54</v>
+        <v>259</v>
       </c>
       <c r="D17" s="7">
-        <v>57191</v>
+        <v>279383</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="I17" s="7">
-        <v>57584</v>
+        <v>210532</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
-        <v>107</v>
+        <v>462</v>
       </c>
       <c r="N17" s="7">
-        <v>114775</v>
+        <v>489915</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,10 +4172,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>929</v>
+        <v>3224</v>
       </c>
       <c r="D18" s="7">
-        <v>934670</v>
+        <v>3387448</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4664,10 +4187,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>958</v>
+        <v>3335</v>
       </c>
       <c r="I18" s="7">
-        <v>1042667</v>
+        <v>3541575</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4679,10 +4202,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1887</v>
+        <v>6559</v>
       </c>
       <c r="N18" s="7">
-        <v>1977337</v>
+        <v>6929023</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4695,171 +4218,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2965</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3108065</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3132</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3331043</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6097</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6439108</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>259</v>
-      </c>
-      <c r="D20" s="7">
-        <v>279383</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H20" s="7">
-        <v>203</v>
-      </c>
-      <c r="I20" s="7">
-        <v>210532</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M20" s="7">
-        <v>462</v>
-      </c>
-      <c r="N20" s="7">
-        <v>489915</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3224</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3387448</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3335</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3541575</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6559</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6929023</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4872,8 +4239,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C23189D-2DA8-45DF-B409-08D4D994AC56}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5D6A5A-9C49-40A1-9B24-22210D10FD79}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4889,7 +4256,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4990,49 +4357,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>104</v>
+        <v>650</v>
       </c>
       <c r="D4" s="7">
-        <v>90117</v>
+        <v>559908</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
-        <v>230</v>
+        <v>1132</v>
       </c>
       <c r="I4" s="7">
-        <v>122632</v>
+        <v>612217</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
-        <v>334</v>
+        <v>1782</v>
       </c>
       <c r="N4" s="7">
-        <v>212748</v>
+        <v>1172125</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,49 +4408,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D5" s="7">
-        <v>11865</v>
+        <v>75533</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>277</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>63</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="I5" s="7">
-        <v>8101</v>
+        <v>63153</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="N5" s="7">
-        <v>19967</v>
+        <v>138686</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,10 +4459,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5107,10 +4474,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5122,10 +4489,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310811</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5145,49 +4512,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>546</v>
+        <v>874</v>
       </c>
       <c r="D7" s="7">
-        <v>482057</v>
+        <v>1099339</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="H7" s="7">
-        <v>902</v>
+        <v>1392</v>
       </c>
       <c r="I7" s="7">
-        <v>532888</v>
+        <v>875668</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>335</v>
+        <v>140</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="M7" s="7">
-        <v>1448</v>
+        <v>2266</v>
       </c>
       <c r="N7" s="7">
-        <v>1014946</v>
+        <v>1975009</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,49 +4563,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D8" s="7">
-        <v>67766</v>
+        <v>93525</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="I8" s="7">
-        <v>59667</v>
+        <v>82438</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>344</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>345</v>
+        <v>149</v>
       </c>
       <c r="M8" s="7">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="N8" s="7">
-        <v>127432</v>
+        <v>175962</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,10 +4614,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5262,10 +4629,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5277,10 +4644,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142378</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5300,49 +4667,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>874</v>
+        <v>552</v>
       </c>
       <c r="D10" s="7">
-        <v>937340</v>
+        <v>567105</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
-        <v>1392</v>
+        <v>894</v>
       </c>
       <c r="I10" s="7">
-        <v>966729</v>
+        <v>827709</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
-        <v>2266</v>
+        <v>1446</v>
       </c>
       <c r="N10" s="7">
-        <v>1904069</v>
+        <v>1394814</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>352</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>353</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>354</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,49 +4718,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="D11" s="7">
-        <v>101908</v>
+        <v>137575</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>355</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="H11" s="7">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="I11" s="7">
-        <v>92745</v>
+        <v>105657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>315</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M11" s="7">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="N11" s="7">
-        <v>194653</v>
+        <v>243232</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,10 +4769,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5417,10 +4784,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5432,10 +4799,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5455,49 +4822,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>552</v>
+        <v>900</v>
       </c>
       <c r="D13" s="7">
-        <v>582089</v>
+        <v>821120</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="H13" s="7">
-        <v>894</v>
+        <v>1382</v>
       </c>
       <c r="I13" s="7">
-        <v>758514</v>
+        <v>913091</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
-        <v>1446</v>
+        <v>2282</v>
       </c>
       <c r="N13" s="7">
-        <v>1340602</v>
+        <v>1734211</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,49 +4873,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D14" s="7">
-        <v>146683</v>
+        <v>105711</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="I14" s="7">
-        <v>115857</v>
+        <v>181841</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="M14" s="7">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="N14" s="7">
-        <v>262540</v>
+        <v>287552</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>336</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,10 +4924,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5572,10 +4939,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5587,10 +4954,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5604,55 +4971,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>900</v>
+        <v>2976</v>
       </c>
       <c r="D16" s="7">
-        <v>856000</v>
+        <v>3047473</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="H16" s="7">
-        <v>1382</v>
+        <v>4800</v>
       </c>
       <c r="I16" s="7">
-        <v>1012016</v>
+        <v>3228685</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
-        <v>2282</v>
+        <v>7776</v>
       </c>
       <c r="N16" s="7">
-        <v>1868016</v>
+        <v>6276158</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,49 +5028,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>106</v>
+        <v>400</v>
       </c>
       <c r="D17" s="7">
-        <v>109403</v>
+        <v>412344</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="H17" s="7">
-        <v>180</v>
+        <v>563</v>
       </c>
       <c r="I17" s="7">
-        <v>138416</v>
+        <v>433089</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="M17" s="7">
-        <v>286</v>
+        <v>963</v>
       </c>
       <c r="N17" s="7">
-        <v>247819</v>
+        <v>845433</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,10 +5079,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5727,10 +5094,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5363</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3661774</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5742,10 +5109,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8739</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7121591</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5758,171 +5125,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2976</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2947604</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4800</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3392778</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7776</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6340381</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>400</v>
-      </c>
-      <c r="D20" s="7">
-        <v>437624</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="H20" s="7">
-        <v>563</v>
-      </c>
-      <c r="I20" s="7">
-        <v>414786</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="M20" s="7">
-        <v>963</v>
-      </c>
-      <c r="N20" s="7">
-        <v>852411</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5363</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3807564</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8739</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7192792</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
